--- a/test/HDR-VDP/hdrvdp-3.0.7/test_move/Test-1-SP/40/vdp-hdr-detection.xlsx
+++ b/test/HDR-VDP/hdrvdp-3.0.7/test_move/Test-1-SP/40/vdp-hdr-detection.xlsx
@@ -59,302 +59,302 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="true"/>
+    <col min="1" max="1" width="13.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.27984814851074546</v>
+        <v>0.448282122327467</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.24143286711104839</v>
+        <v>0.70074058298358577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.68266841080439478</v>
+        <v>0.83881179074299539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.72178469081379037</v>
+        <v>0.76869366594304445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.67985169415606139</v>
+        <v>0.52353537537000716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.80491688465200439</v>
+        <v>0.71217793281009323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.97913584638419626</v>
+        <v>0.78937720966030911</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93668784550159245</v>
+        <v>0.87538088455738061</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94580533390569377</v>
+        <v>0.97247305901421544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.85775744676335042</v>
+        <v>0.8041620966481271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.97274713366839827</v>
+        <v>0.90978972120237123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9156643919018459</v>
+        <v>0.49937253004245841</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.91639300515044442</v>
+        <v>0.77146889666771634</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.75327778791000799</v>
+        <v>0.73839037103639682</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.64153188713383169</v>
+        <v>0.45701038074698336</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.91895968864840094</v>
+        <v>0.92876594140953617</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.55537681747377909</v>
+        <v>0.64579004771583426</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.74995173509589763</v>
+        <v>0.622075438252644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.82783558201556762</v>
+        <v>0.70811853667873403</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.7254680982281404</v>
+        <v>0.53424732674157149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.60727086740502478</v>
+        <v>0.33682978169698902</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.36881601568940142</v>
+        <v>0.18632177870822045</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.38513696997539298</v>
+        <v>0.2610117402044112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.65945917760334272</v>
+        <v>0.37745141298087515</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.60006186604616518</v>
+        <v>0.35414441718317524</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.80046875389308325</v>
+        <v>0.54934238734243079</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.88261110768090068</v>
+        <v>0.77648500740391602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.8261275993014241</v>
+        <v>0.57953540007109883</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.71076201943394457</v>
+        <v>0.42326334027283968</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.72067769698104978</v>
+        <v>0.28345249948142059</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.65748549360351449</v>
+        <v>0.22333621015638833</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.63731359748266403</v>
+        <v>0.23091351448890512</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.68037086763538235</v>
+        <v>0.31160704949718931</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7218856691650879</v>
+        <v>0.19175849765808459</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.74414609908050422</v>
+        <v>0.39524850203792539</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.79354963612013885</v>
+        <v>0.25150263430876751</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.82648424438965407</v>
+        <v>0.26157829593852366</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.90437772520436532</v>
+        <v>0.33866680274864958</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.90050089126508703</v>
+        <v>0.33761284548147025</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.80516994215331794</v>
+        <v>0.3188313926620947</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.67497530549923113</v>
+        <v>0.15875592171552239</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.68217251900482934</v>
+        <v>0.15092078513953033</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.40192496757166746</v>
+        <v>0.071637956543694939</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.80474575546882254</v>
+        <v>0.01488823162330823</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.74984462463214552</v>
+        <v>0.04360888423032358</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.51996061973657515</v>
+        <v>0.019856575224641411</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.56459266745623027</v>
+        <v>0.09095679205209567</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.64768211380083807</v>
+        <v>0.042329408498803407</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.68655164394850565</v>
+        <v>0.078819285913480225</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.61331465856201994</v>
+        <v>0.054454146531799544</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.60593460517541375</v>
+        <v>0.092612123455437817</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.61751396817674897</v>
+        <v>0.12098233248029841</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.67190679960716815</v>
+        <v>0.18819693986188979</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.73280781255744198</v>
+        <v>0.20884592664848661</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.72146934496347348</v>
+        <v>0.193498032923139</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.76060824618891942</v>
+        <v>0.29199399361980899</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.73767962838821766</v>
+        <v>0.49427815822211307</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.60317493687422141</v>
+        <v>0.25617376187097568</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.59720292617043214</v>
+        <v>0.27982352138315891</v>
       </c>
     </row>
   </sheetData>
